--- a/src/test/resources/Documents/18081/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/18081/Base/JobPlanning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -62,98 +62,58 @@
     <t>PlannedResource</t>
   </si>
   <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>- P-Dinh</t>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Staple</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Farmout 1</t>
-  </si>
-  <si>
-    <t>124</t>
+    <t>HC Hand Bindery</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
   <si>
     <t>Not allocated</t>
   </si>
   <si>
-    <t>- Anderson</t>
-  </si>
-  <si>
-    <t>Farmout 2</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Liner  2p</t>
-  </si>
-  <si>
-    <t>Cut for Press</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Cut for Press
-Final Trim</t>
-  </si>
-  <si>
-    <t>Outer wrap  2p</t>
-  </si>
-  <si>
-    <t>Print F 2x0</t>
-  </si>
-  <si>
-    <t>8CS 40" (#9)</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>8CS 40" (#9)
-8CP 40" (#9)</t>
-  </si>
-  <si>
-    <t>Laminate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Farmout 1
-Farmout 2
-Farmout 3</t>
-  </si>
-  <si>
-    <t>Print F (Varnish 1x0)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Post-Press Cut</t>
-  </si>
-  <si>
-    <t>Final Trim</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Plate - Outer wrap  2p</t>
-  </si>
-  <si>
-    <t>Plate burn</t>
-  </si>
-  <si>
-    <t>Galileo</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>Bound Packed</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Text   4p</t>
+  </si>
+  <si>
+    <t>Pos Cut</t>
+  </si>
+  <si>
+    <t>HC Digital Knife</t>
+  </si>
+  <si>
+    <t>2,008</t>
+  </si>
+  <si>
+    <t>Proof Approval</t>
+  </si>
+  <si>
+    <t>HC Proof Approval</t>
+  </si>
+  <si>
+    <t>HC Proof  Approval</t>
+  </si>
+  <si>
+    <t>Digital Print F/B 4x4</t>
+  </si>
+  <si>
+    <t>HC NexPress 1-4c</t>
   </si>
 </sst>
 </file>
@@ -161,208 +121,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="106">
+  <fonts count="67">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -715,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -783,45 +548,6 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -927,16 +653,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -960,10 +686,10 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -977,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -986,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -1001,25 +727,25 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="41">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="42">
         <v>29</v>
       </c>
-      <c r="B5" t="s" s="42">
+      <c r="C5" t="s" s="43">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="44">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="44">
-        <v>31</v>
-      </c>
       <c r="E5" t="s" s="45">
         <v>18</v>
       </c>
@@ -1027,7 +753,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s" s="47">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s" s="48">
         <v>18</v>
@@ -1045,21 +771,21 @@
         <v>31</v>
       </c>
       <c r="M5" t="s" s="53">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="54">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="55">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="56">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="57">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1068,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="60">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s" s="61">
         <v>18</v>
@@ -1083,133 +809,10 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="67">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="68">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s" s="69">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s" s="71">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="72">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s" s="73">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s" s="74">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="75">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s" s="76">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s" s="77">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s" s="78">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s" s="79">
         <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="80">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s" s="81">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s" s="82">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s" s="84">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="85">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s" s="86">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s" s="87">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s" s="88">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s" s="89">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s" s="90">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s" s="91">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s" s="92">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="93">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s" s="94">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s" s="95">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s" s="96">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s" s="97">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="98">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s" s="99">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s" s="100">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s" s="101">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s" s="102">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s" s="103">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s" s="104">
-        <v>44</v>
-      </c>
-      <c r="M9" t="s" s="105">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
